--- a/ House Prices_Advanced Regression Techniques/变量分析.xlsx
+++ b/ House Prices_Advanced Regression Techniques/变量分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\kaggle\ House Prices_Advanced Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023EE592-8816-4ED8-9F9A-89070503011A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3EFA1-FF8B-439F-91AD-65B812504B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
   <si>
     <t xml:space="preserve">Variable </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,10 @@
   </si>
   <si>
     <t>屋顶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子外墙涂料材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1640,6 +1644,18 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1647,6 +1663,18 @@
       </c>
       <c r="B26" t="s">
         <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">

--- a/ House Prices_Advanced Regression Techniques/变量分析.xlsx
+++ b/ House Prices_Advanced Regression Techniques/变量分析.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PythonProject\kaggle\ House Prices_Advanced Regression Techniques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\kaggle\ House Prices_Advanced Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2721C4D-DAD6-4996-AE91-931F38A5416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1551,27 +1551,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.109375" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.08203125" customWidth="1"/>
+    <col min="3" max="3" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>288</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>289</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>283</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>282</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>294</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>277</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>279</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>274</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3309,13 +3308,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G81">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="high"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="G1:G81" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ House Prices_Advanced Regression Techniques/变量分析.xlsx
+++ b/ House Prices_Advanced Regression Techniques/变量分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\kaggle\ House Prices_Advanced Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2721C4D-DAD6-4996-AE91-931F38A5416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1A9DC-9694-4382-8151-3B8BB858AD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1552,10 +1552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1619,7 +1620,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>288</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>289</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>294</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>277</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>279</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>274</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3308,7 +3309,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G81" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G81" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="high"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
